--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.布丁粉，口味有原味、牛奶、草莓、花生，布丁粉:白糖:水=1:1:10,搅拌均匀，开锅熬五分钟，停火后过滤浮沫，冷却后变布丁。2.烧开水倒入珍珠煮三五分钟，出锅后过凉水以防黏连。3.奶茶粉，口味有原味，蓝莓，草莓，抹茶，阿萨姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛奶奶盖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,15 +93,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>柠檬饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3片柠檬、40果糖、冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.每层果浆和果糖（20克）和水搅拌均匀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>柠檬饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3片柠檬、40果糖、冰块</t>
+    <t>1.布丁粉，口味有原味、牛奶、草莓、花生，布丁粉:白糖:水=1:1:10,搅拌均匀，开锅熬五分钟，停火后过滤浮沫，冷却后变布丁。2.烧开水后倒入珍珠煮三五分钟，出锅后过凉水以防黏连。3.奶茶粉，口味有原味，蓝莓，草莓，抹茶，阿萨姆。4.烧仙草:90度的水=1:7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -537,62 +537,62 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -1,130 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="家常菜" sheetId="1" r:id="rId1"/>
     <sheet name="饮料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>排骨汤</t>
+  </si>
+  <si>
+    <t>一斤半排骨</t>
+  </si>
+  <si>
+    <t>七彩菌汤包</t>
+  </si>
+  <si>
+    <t>三块冰糖</t>
+  </si>
+  <si>
+    <t>一勺蚝油</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>半勺鸡精</t>
+  </si>
+  <si>
+    <t>蒜</t>
+  </si>
+  <si>
+    <t>腌制10分钟，炖汤两个小时</t>
+  </si>
   <si>
     <t>饮料名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>详细操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>珍珠奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烧仙草、布丁粉、奶茶粉、珍珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奶茶粉:水=1:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.布丁粉，口味有原味、牛奶、草莓、花生，布丁粉:白糖:水=1:1:10,搅拌均匀，开锅熬五分钟，停火后过滤浮沫，冷却后变布丁。2.烧开水后倒入珍珠煮三五分钟，出锅后过凉水以防黏连。3.奶茶粉，口味有原味，蓝莓，草莓，抹茶，阿萨姆。4.烧仙草:90度的水=1:7</t>
   </si>
   <si>
     <t>牛奶奶盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>茶水、牛奶、奶盖粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西瓜果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西瓜糖浆、果糖(少量)、冰块、西瓜块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>果糖浆:水=1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分成饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三种不同果浆、果糖、冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>底1:2.5、中1:10、顶1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每层果浆和果糖（20克）和水搅拌均匀</t>
   </si>
   <si>
     <t>柠檬饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3片柠檬、40果糖、冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.每层果浆和果糖（20克）和水搅拌均匀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.布丁粉，口味有原味、牛奶、草莓、花生，布丁粉:白糖:水=1:1:10,搅拌均匀，开锅熬五分钟，停火后过滤浮沫，冷却后变布丁。2.烧开水后倒入珍珠煮三五分钟，出锅后过凉水以防黏连。3.奶茶粉，口味有原味，蓝莓，草莓，抹茶，阿萨姆。4.烧仙草:90度的水=1:7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,20 +133,362 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,32 +496,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -470,135 +1104,190 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A16:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="100.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="30.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="100.62962962963" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="家常菜" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+  <si>
+    <t>青椒炒肉</t>
+  </si>
+  <si>
+    <t>油豆腐</t>
+  </si>
+  <si>
+    <t>特浓高汤</t>
+  </si>
+  <si>
+    <t>冒菜红油</t>
+  </si>
+  <si>
+    <t>冒菜辣椒油</t>
+  </si>
   <si>
     <t>排骨汤</t>
   </si>
@@ -120,7 +135,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +147,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -597,48 +605,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,97 +659,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A16:B24"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1122,50 +1130,75 @@
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1197,91 +1230,91 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5"/>
     </row>

--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -9,13 +9,22 @@
   <sheets>
     <sheet name="家常菜" sheetId="1" r:id="rId1"/>
     <sheet name="饮料" sheetId="3" r:id="rId2"/>
+    <sheet name="糍粑" sheetId="4" r:id="rId3"/>
+    <sheet name="水果" sheetId="5" r:id="rId4"/>
+    <sheet name="米" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>菜名</t>
+  </si>
+  <si>
+    <t>做法步骤</t>
+  </si>
   <si>
     <t>青椒炒肉</t>
   </si>
@@ -35,28 +44,23 @@
     <t>排骨汤</t>
   </si>
   <si>
-    <t>一斤半排骨</t>
-  </si>
-  <si>
-    <t>七彩菌汤包</t>
-  </si>
-  <si>
-    <t>三块冰糖</t>
-  </si>
-  <si>
-    <t>一勺蚝油</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>半勺鸡精</t>
-  </si>
-  <si>
-    <t>蒜</t>
-  </si>
-  <si>
-    <t>腌制10分钟，炖汤两个小时</t>
+    <t>一斤半排骨、七彩菌汤包、三块冰糖、一勺蚝油、盐、半勺鸡精、蒜
+腌制10分钟，炖汤两个小时</t>
+  </si>
+  <si>
+    <t>烧汤米粉</t>
+  </si>
+  <si>
+    <t>煎蛋备用
+水泡米粉，烧水煮米粉，有点软就捞起放碗里
+放油、瘦肉片、葱白、红辣椒、盐，炒一会放水，煮一会放姜、酱油、鸡精、豆腐片、白菜
+装米粉的碗里加煎蛋、汤、葱花</t>
+  </si>
+  <si>
+    <t>鸡扒、猪扒</t>
+  </si>
+  <si>
+    <t>梅菜扣肉</t>
   </si>
   <si>
     <t>饮料名</t>
@@ -123,6 +127,30 @@
   </si>
   <si>
     <t>3片柠檬、40果糖、冰块</t>
+  </si>
+  <si>
+    <t>艾草糍粑</t>
+  </si>
+  <si>
+    <t>高粱糍粑</t>
+  </si>
+  <si>
+    <t>糯米糍粑</t>
+  </si>
+  <si>
+    <t>玉米糍粑</t>
+  </si>
+  <si>
+    <t>紫薯糍粑</t>
+  </si>
+  <si>
+    <t>黑米糍粑</t>
+  </si>
+  <si>
+    <t>红心芭乐</t>
+  </si>
+  <si>
+    <t>猫牙米</t>
   </si>
 </sst>
 </file>
@@ -296,18 +324,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -608,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,16 +642,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,52 +663,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -695,16 +717,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,49 +741,49 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,8 +792,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,93 +1143,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B24"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="8" ht="57.6" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1215,7 +1225,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1225,102 +1235,212 @@
     <col min="2" max="2" width="10.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="30.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="100.62962962963" style="3" customWidth="1"/>
+    <col min="5" max="5" width="100.62962962963" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>菜名</t>
   </si>
@@ -29,7 +29,10 @@
     <t>青椒炒肉</t>
   </si>
   <si>
-    <t>油豆腐</t>
+    <t>瘦肉油豆腐</t>
+  </si>
+  <si>
+    <t>放油、五花肉、葱白、盐、鸡精、蚝油、生抽、姜，炒一会放水，油豆腐撕开一点放入，最后放油麦菜</t>
   </si>
   <si>
     <t>特浓高汤</t>
@@ -44,7 +47,7 @@
     <t>排骨汤</t>
   </si>
   <si>
-    <t>一斤半排骨、七彩菌汤包、三块冰糖、一勺蚝油、盐、半勺鸡精、蒜
+    <t>排骨、七彩菌汤包、冰糖、蚝油、盐、鸡精、蒜
 腌制10分钟，炖汤两个小时</t>
   </si>
   <si>
@@ -61,6 +64,13 @@
   </si>
   <si>
     <t>梅菜扣肉</t>
+  </si>
+  <si>
+    <t>瘦肉汤</t>
+  </si>
+  <si>
+    <t>瘦肉片放盐、蚝油、鸡精等腌制
+烧白开水加桂圆、枸杞、生姜沸腾，放入瘦肉，最后撒上葱花</t>
   </si>
   <si>
     <t>饮料名</t>
@@ -1143,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1168,50 +1178,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1240,91 +1261,91 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1360,32 +1381,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1432,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1457,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/interest/food.xlsx
+++ b/interest/food.xlsx
@@ -18,15 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>菜名</t>
   </si>
   <si>
     <t>做法步骤</t>
-  </si>
-  <si>
-    <t>青椒炒肉</t>
   </si>
   <si>
     <t>瘦肉油豆腐</t>
@@ -71,6 +68,74 @@
   <si>
     <t>瘦肉片放盐、蚝油、鸡精等腌制
 烧白开水加桂圆、枸杞、生姜沸腾，放入瘦肉，最后撒上葱花</t>
+  </si>
+  <si>
+    <t>鸡蛋瘦肉汤</t>
+  </si>
+  <si>
+    <t>山药和瘦肉剁碎，比例1：1,放盐，生抽。均匀放四个碗里，每个碗一个鸡蛋。
+大火蒸7分钟鸡蛋就凝固了，放开水，枸杞
+大火蒸15分钟，最后撒葱花</t>
+  </si>
+  <si>
+    <t>白灼生菜</t>
+  </si>
+  <si>
+    <t>水开加盐，食用油，生菜，烫熟捞出，整齐摆入盘中
+空碗中放蒜末，辣椒，烫油，一分钟后加生抽，陈醋，白糖提鲜，最后淋在生菜上</t>
+  </si>
+  <si>
+    <t>炒茄子</t>
+  </si>
+  <si>
+    <t>完好茄子蒸10分钟，手撕小块
+油热加青红辣椒，压出香味，然后放蒜末，豆豉，然后放茄子，盐，鸡精，生抽，老抽，蚝油</t>
+  </si>
+  <si>
+    <t>香蕉烤蛋奶</t>
+  </si>
+  <si>
+    <t>两个鸡蛋，80毫升牛奶，两勺白糖，搅拌均匀
+碗里放香蕉片，淋蛋液，撒点坚果或者杏仁片
+烤30分钟，软糯香甜</t>
+  </si>
+  <si>
+    <t>虎皮辣椒或改进青椒炒肉</t>
+  </si>
+  <si>
+    <t>青辣椒去籽，拍一下辣椒，然后切两段
+灵魂料汁：碗里两勺生抽，一勺陈醋，一小勺食盐，一小勺白糖，搅拌
+锅不加油，加青椒，一小勺食盐，小火边炒边压，快速受热，青椒快出水就可以了，盛出备用
+洗好锅加油，蒜末，豆豉，小火炒出香味，然后放青椒，最后加灵魂料汁,炒半分钟</t>
+  </si>
+  <si>
+    <t>炒牛肉</t>
+  </si>
+  <si>
+    <t>牛肉片，蛋清，一勺生抽，一小勺老抽，两勺生粉，抓拌均匀腌制10分钟
+锅热油，加蒜末，姜片，炒出香味，然后放入牛肉，八成熟加一勺盐，香菜，翻炒10秒</t>
+  </si>
+  <si>
+    <t>番茄鸡蛋面</t>
+  </si>
+  <si>
+    <t>碗里三个鸡蛋，搅拌
+油热，放鸡蛋，盛出备用
+洗锅，油热，放蒜末，葱花，炒香，放西红柿片，一勺盐，炒成汁，然后放开水，半勺生抽，两小勺鸡精，半勺蚝油，面
+煮三分钟后，放鸡蛋，火腿，青菜</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+  </si>
+  <si>
+    <t>鱼片，蛋清，一勺红薯淀粉，葱姜水，抓拌均匀腌制10分钟
+热油，葱末，姜片，炒出香味，然后加水，一包酸菜配料包，煮开后放鱼片，中火煮熟放豆芽</t>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+  </si>
+  <si>
+    <t>油热，放蒜末，姜片，炒香，放瘦肉片，一包麻婆豆腐酱，放清水煮开，放豆腐块，最后撒葱花</t>
   </si>
   <si>
     <t>饮料名</t>
@@ -1153,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1173,66 +1238,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="57.6" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1261,91 +1393,91 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1381,32 +1513,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1564,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1589,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
